--- a/Code/Results/Cases/Case_4_106/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_106/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.73290998073439</v>
+        <v>17.71478051727053</v>
       </c>
       <c r="C2">
-        <v>6.53363385464345</v>
+        <v>3.918362450550199</v>
       </c>
       <c r="D2">
-        <v>8.715128629219324</v>
+        <v>13.24758217417682</v>
       </c>
       <c r="E2">
-        <v>7.686186858466224</v>
+        <v>13.13359281170308</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>44.41114973839838</v>
+        <v>60.71641640489961</v>
       </c>
       <c r="H2">
-        <v>14.39041507088031</v>
+        <v>22.34760432598437</v>
       </c>
       <c r="I2">
-        <v>23.34397588043549</v>
+        <v>35.2352596604217</v>
       </c>
       <c r="J2">
-        <v>4.87884055507782</v>
+        <v>8.061198718603105</v>
       </c>
       <c r="K2">
-        <v>12.05463115012286</v>
+        <v>15.15684806789466</v>
       </c>
       <c r="L2">
-        <v>7.817203414595193</v>
+        <v>13.027669503121</v>
       </c>
       <c r="M2">
-        <v>11.71396564701302</v>
+        <v>18.48091113528358</v>
       </c>
       <c r="N2">
-        <v>16.21802103026467</v>
+        <v>24.61537505153531</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.98305903093082</v>
+        <v>17.60320496475338</v>
       </c>
       <c r="C3">
-        <v>6.113249546374069</v>
+        <v>3.701879639757636</v>
       </c>
       <c r="D3">
-        <v>8.551340314319885</v>
+        <v>13.25114696125519</v>
       </c>
       <c r="E3">
-        <v>7.695590646872025</v>
+        <v>13.15536450863131</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>43.84962405690675</v>
+        <v>60.75684234159249</v>
       </c>
       <c r="H3">
-        <v>14.38381270237024</v>
+        <v>22.39061415335945</v>
       </c>
       <c r="I3">
-        <v>23.33217068766502</v>
+        <v>35.30440407070573</v>
       </c>
       <c r="J3">
-        <v>4.87423408265285</v>
+        <v>8.060591239375906</v>
       </c>
       <c r="K3">
-        <v>11.47888780513624</v>
+        <v>15.08107307220823</v>
       </c>
       <c r="L3">
-        <v>7.755649989674648</v>
+        <v>13.04398961377904</v>
       </c>
       <c r="M3">
-        <v>11.4542884323083</v>
+        <v>18.48133287078555</v>
       </c>
       <c r="N3">
-        <v>16.41496545662899</v>
+        <v>24.67460215187332</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.50953670450524</v>
+        <v>17.53823456229862</v>
       </c>
       <c r="C4">
-        <v>5.841686861169779</v>
+        <v>3.595258464558431</v>
       </c>
       <c r="D4">
-        <v>8.453876039217199</v>
+        <v>13.25545608998988</v>
       </c>
       <c r="E4">
-        <v>7.703809597553889</v>
+        <v>13.16992849902011</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>43.53369443137398</v>
+        <v>60.79357584414558</v>
       </c>
       <c r="H4">
-        <v>14.38731428092335</v>
+        <v>22.42006014324332</v>
       </c>
       <c r="I4">
-        <v>23.33803720168207</v>
+        <v>35.35196957328785</v>
       </c>
       <c r="J4">
-        <v>4.871514521635782</v>
+        <v>8.060236966094333</v>
       </c>
       <c r="K4">
-        <v>11.11697491927591</v>
+        <v>15.03754913401113</v>
       </c>
       <c r="L4">
-        <v>7.721020594253801</v>
+        <v>13.05561425727466</v>
       </c>
       <c r="M4">
-        <v>11.29762477799926</v>
+        <v>18.48438561187706</v>
       </c>
       <c r="N4">
-        <v>16.53955904987667</v>
+        <v>24.7128745041517</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.31351915980551</v>
+        <v>17.5126719495962</v>
       </c>
       <c r="C5">
-        <v>5.727628501985695</v>
+        <v>3.552756225930684</v>
       </c>
       <c r="D5">
-        <v>8.414969017131169</v>
+        <v>13.25774611291146</v>
       </c>
       <c r="E5">
-        <v>7.707764060903856</v>
+        <v>13.17616472975301</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>43.4120890581801</v>
+        <v>60.81153804162208</v>
       </c>
       <c r="H5">
-        <v>14.39058234825144</v>
+        <v>22.43282337484348</v>
       </c>
       <c r="I5">
-        <v>23.3436173170218</v>
+        <v>35.37263729333726</v>
       </c>
       <c r="J5">
-        <v>4.870431854061597</v>
+        <v>8.06009730141937</v>
       </c>
       <c r="K5">
-        <v>10.967577903974</v>
+        <v>15.02058238216896</v>
       </c>
       <c r="L5">
-        <v>7.707698698162918</v>
+        <v>13.06075517545371</v>
       </c>
       <c r="M5">
-        <v>11.23454899847713</v>
+        <v>18.48633393125439</v>
       </c>
       <c r="N5">
-        <v>16.59126163582945</v>
+        <v>24.72895125243338</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.28079413989979</v>
+        <v>17.5084831294384</v>
       </c>
       <c r="C6">
-        <v>5.708483901693195</v>
+        <v>3.545664333500641</v>
       </c>
       <c r="D6">
-        <v>8.408558345063154</v>
+        <v>13.25815864401154</v>
       </c>
       <c r="E6">
-        <v>7.70845696914064</v>
+        <v>13.1772184633361</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>43.39232403152186</v>
+        <v>60.81470133111922</v>
       </c>
       <c r="H6">
-        <v>14.39123450667695</v>
+        <v>22.43498882397833</v>
       </c>
       <c r="I6">
-        <v>23.34473338230405</v>
+        <v>35.37614670435654</v>
       </c>
       <c r="J6">
-        <v>4.870253572425218</v>
+        <v>8.060074394262875</v>
       </c>
       <c r="K6">
-        <v>10.94266142510608</v>
+        <v>15.0178119562339</v>
       </c>
       <c r="L6">
-        <v>7.705534121288406</v>
+        <v>13.06163322034332</v>
       </c>
       <c r="M6">
-        <v>11.22412353936562</v>
+        <v>18.4867000336509</v>
       </c>
       <c r="N6">
-        <v>16.59990317790733</v>
+        <v>24.73164983218583</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.5069051530184</v>
+        <v>17.53788608743498</v>
       </c>
       <c r="C7">
-        <v>5.840162387786349</v>
+        <v>3.594687622306843</v>
       </c>
       <c r="D7">
-        <v>8.453348004872288</v>
+        <v>13.25548481083376</v>
       </c>
       <c r="E7">
-        <v>7.703860491092771</v>
+        <v>13.17001138241714</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>43.53202567976292</v>
+        <v>60.79380597405336</v>
       </c>
       <c r="H7">
-        <v>14.38735097750082</v>
+        <v>22.42022918047032</v>
       </c>
       <c r="I7">
-        <v>23.33809968528255</v>
+        <v>35.35224310596703</v>
       </c>
       <c r="J7">
-        <v>4.871499819131884</v>
+        <v>8.060235063481686</v>
       </c>
       <c r="K7">
-        <v>11.11496756549383</v>
+        <v>15.03731717977009</v>
       </c>
       <c r="L7">
-        <v>7.720837740888839</v>
+        <v>13.05568195405387</v>
       </c>
       <c r="M7">
-        <v>11.29677092584492</v>
+        <v>18.48440903373261</v>
       </c>
       <c r="N7">
-        <v>16.54025255500763</v>
+        <v>24.71308937414401</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.47721554551053</v>
+        <v>17.6755898068776</v>
       </c>
       <c r="C8">
-        <v>6.391466025776698</v>
+        <v>3.845271364376526</v>
       </c>
       <c r="D8">
-        <v>8.658029035649491</v>
+        <v>13.24837179168995</v>
       </c>
       <c r="E8">
-        <v>7.688915968011052</v>
+        <v>13.14085176093701</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>44.21148283025016</v>
+        <v>60.72788187972945</v>
       </c>
       <c r="H8">
-        <v>14.38653484574308</v>
+        <v>22.361803560568</v>
       </c>
       <c r="I8">
-        <v>23.3371178110326</v>
+        <v>35.25803956210999</v>
       </c>
       <c r="J8">
-        <v>4.877228540022772</v>
+        <v>8.060985372000429</v>
       </c>
       <c r="K8">
-        <v>11.85796880178986</v>
+        <v>15.13010685996911</v>
       </c>
       <c r="L8">
-        <v>7.795319676617073</v>
+        <v>13.03296403288619</v>
       </c>
       <c r="M8">
-        <v>11.62389212141856</v>
+        <v>18.48047783283536</v>
       </c>
       <c r="N8">
-        <v>16.28517013853269</v>
+        <v>24.63540143232323</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.26736413368648</v>
+        <v>17.97258133614159</v>
       </c>
       <c r="C9">
-        <v>7.366779582661658</v>
+        <v>4.343658567823863</v>
       </c>
       <c r="D9">
-        <v>9.08266459137371</v>
+        <v>13.25120428117574</v>
       </c>
       <c r="E9">
-        <v>7.679454162823031</v>
+        <v>13.09313712113942</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>45.7773218095722</v>
+        <v>60.69318508426353</v>
       </c>
       <c r="H9">
-        <v>14.44756115987139</v>
+        <v>22.27133954088407</v>
       </c>
       <c r="I9">
-        <v>23.44418197280746</v>
+        <v>35.11388630775974</v>
       </c>
       <c r="J9">
-        <v>4.889413544862383</v>
+        <v>8.062605530141326</v>
       </c>
       <c r="K9">
-        <v>13.24113358659874</v>
+        <v>15.33519613200596</v>
       </c>
       <c r="L9">
-        <v>7.966720179014973</v>
+        <v>13.0011216599864</v>
       </c>
       <c r="M9">
-        <v>12.28455807082665</v>
+        <v>18.49485011218497</v>
       </c>
       <c r="N9">
-        <v>15.81376516768591</v>
+        <v>24.49813777773715</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.50506418010514</v>
+        <v>18.20563734382365</v>
       </c>
       <c r="C10">
-        <v>8.020428605832507</v>
+        <v>4.672913801497349</v>
       </c>
       <c r="D10">
-        <v>9.407035427320928</v>
+        <v>13.26344943594063</v>
       </c>
       <c r="E10">
-        <v>7.685232677043455</v>
+        <v>13.06382146775981</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>47.0755276583126</v>
+        <v>60.72538389596781</v>
       </c>
       <c r="H10">
-        <v>14.53432868715976</v>
+        <v>22.21957877487881</v>
       </c>
       <c r="I10">
-        <v>23.59616570621592</v>
+        <v>35.03275333803433</v>
       </c>
       <c r="J10">
-        <v>4.899078228295738</v>
+        <v>8.063887108504012</v>
       </c>
       <c r="K10">
-        <v>14.20474181714838</v>
+        <v>15.49898412335085</v>
       </c>
       <c r="L10">
-        <v>8.108385159544452</v>
+        <v>12.98544602533603</v>
       </c>
       <c r="M10">
-        <v>12.77801770016078</v>
+        <v>18.51874346592655</v>
       </c>
       <c r="N10">
-        <v>15.48461758879115</v>
+        <v>24.40641890620403</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.05008499909933</v>
+        <v>18.31452903430927</v>
       </c>
       <c r="C11">
-        <v>8.304557670837097</v>
+        <v>4.81461683997636</v>
       </c>
       <c r="D11">
-        <v>9.556937299490512</v>
+        <v>13.27120926741477</v>
       </c>
       <c r="E11">
-        <v>7.690768568072979</v>
+        <v>13.05172479064737</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>47.69922644510151</v>
+        <v>60.75254179460727</v>
       </c>
       <c r="H11">
-        <v>14.58373813338116</v>
+        <v>22.19922452230399</v>
       </c>
       <c r="I11">
-        <v>23.68274460140187</v>
+        <v>35.00123006280054</v>
       </c>
       <c r="J11">
-        <v>4.903662218814231</v>
+        <v>8.064490070688365</v>
       </c>
       <c r="K11">
-        <v>14.63061192183604</v>
+        <v>15.57611315209197</v>
       </c>
       <c r="L11">
-        <v>8.17630424816365</v>
+        <v>12.9799840955429</v>
       </c>
       <c r="M11">
-        <v>13.00357449007747</v>
+        <v>18.53247631151154</v>
       </c>
       <c r="N11">
-        <v>15.33855559560133</v>
+        <v>24.36666197965595</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.25381552877391</v>
+        <v>18.35614538094997</v>
       </c>
       <c r="C12">
-        <v>8.410289071387353</v>
+        <v>4.867111283798312</v>
       </c>
       <c r="D12">
-        <v>9.614011478185223</v>
+        <v>13.27446068164802</v>
       </c>
       <c r="E12">
-        <v>7.693295160434229</v>
+        <v>13.04732174079235</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>47.94024707343421</v>
+        <v>60.76462099440128</v>
       </c>
       <c r="H12">
-        <v>14.60394758568814</v>
+        <v>22.19197583339879</v>
       </c>
       <c r="I12">
-        <v>23.71816509105468</v>
+        <v>34.99006760928479</v>
       </c>
       <c r="J12">
-        <v>4.905428008707386</v>
+        <v>8.064721274308976</v>
       </c>
       <c r="K12">
-        <v>14.79002315456139</v>
+        <v>15.60567642605488</v>
       </c>
       <c r="L12">
-        <v>8.202527187631297</v>
+        <v>12.97815513735031</v>
       </c>
       <c r="M12">
-        <v>13.08909233130593</v>
+        <v>18.53808516212131</v>
       </c>
       <c r="N12">
-        <v>15.28377116638882</v>
+        <v>24.35188884601176</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.21005748259481</v>
+        <v>18.34716610388527</v>
       </c>
       <c r="C13">
-        <v>8.387600078456545</v>
+        <v>4.855857544742618</v>
       </c>
       <c r="D13">
-        <v>9.601706166677122</v>
+        <v>13.27374654602173</v>
       </c>
       <c r="E13">
-        <v>7.692731677271936</v>
+        <v>13.04826212099583</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>47.88812252341643</v>
+        <v>60.76193976108407</v>
       </c>
       <c r="H13">
-        <v>14.59952730717279</v>
+        <v>22.19351655329174</v>
       </c>
       <c r="I13">
-        <v>23.71041741284779</v>
+        <v>34.99243718152992</v>
       </c>
       <c r="J13">
-        <v>4.905046332653907</v>
+        <v>8.064671352547974</v>
       </c>
       <c r="K13">
-        <v>14.75577443196668</v>
+        <v>15.59929394084399</v>
       </c>
       <c r="L13">
-        <v>8.196857153612278</v>
+        <v>12.97853840159707</v>
       </c>
       <c r="M13">
-        <v>13.07067063119156</v>
+        <v>18.53685908157672</v>
       </c>
       <c r="N13">
-        <v>15.29554658004866</v>
+        <v>24.35505797768372</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.06689957613798</v>
+        <v>18.31794537582796</v>
       </c>
       <c r="C14">
-        <v>8.313293339343636</v>
+        <v>4.818958963284435</v>
       </c>
       <c r="D14">
-        <v>9.56162676786167</v>
+        <v>13.27147050316492</v>
       </c>
       <c r="E14">
-        <v>7.690967737325885</v>
+        <v>13.05135899055291</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>47.71895793387464</v>
+        <v>60.75349960820722</v>
       </c>
       <c r="H14">
-        <v>14.58537032374313</v>
+        <v>22.19861896885671</v>
       </c>
       <c r="I14">
-        <v>23.68560512084728</v>
+        <v>35.00029619228818</v>
       </c>
       <c r="J14">
-        <v>4.903806873492815</v>
+        <v>8.064509034309269</v>
       </c>
       <c r="K14">
-        <v>14.64376426949342</v>
+        <v>15.57853832275669</v>
       </c>
       <c r="L14">
-        <v>8.178451512480905</v>
+        <v>12.97982883287017</v>
       </c>
       <c r="M14">
-        <v>13.01060827031629</v>
+        <v>18.53292958732908</v>
       </c>
       <c r="N14">
-        <v>15.33403790627842</v>
+        <v>24.36544093897457</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.97886365168949</v>
+        <v>18.3000955564985</v>
       </c>
       <c r="C15">
-        <v>8.267537036083077</v>
+        <v>4.796205654158226</v>
       </c>
       <c r="D15">
-        <v>9.537116535424566</v>
+        <v>13.2701170545707</v>
       </c>
       <c r="E15">
-        <v>7.689943678174369</v>
+        <v>13.05327903963335</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>47.61597221697615</v>
+        <v>60.74856340732423</v>
       </c>
       <c r="H15">
-        <v>14.57689610921343</v>
+        <v>22.20180412390846</v>
       </c>
       <c r="I15">
-        <v>23.67075383944078</v>
+        <v>35.0052109664741</v>
       </c>
       <c r="J15">
-        <v>4.903051660038323</v>
+        <v>8.064409984217397</v>
       </c>
       <c r="K15">
-        <v>14.57491154805825</v>
+        <v>15.56587066797045</v>
       </c>
       <c r="L15">
-        <v>8.167243207489303</v>
+        <v>12.98065041052712</v>
       </c>
       <c r="M15">
-        <v>12.97383053580775</v>
+        <v>18.5305757585351</v>
       </c>
       <c r="N15">
-        <v>15.3576834527106</v>
+        <v>24.37183749690341</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.46907702260873</v>
+        <v>18.19857613432179</v>
       </c>
       <c r="C16">
-        <v>8.001597321784745</v>
+        <v>4.663490269494276</v>
       </c>
       <c r="D16">
-        <v>9.397283736438352</v>
+        <v>13.26298621163724</v>
       </c>
       <c r="E16">
-        <v>7.684930427334873</v>
+        <v>13.06463690729916</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>47.03544060600821</v>
+        <v>60.72386050232106</v>
       </c>
       <c r="H16">
-        <v>14.53130559500165</v>
+        <v>22.22097320720811</v>
       </c>
       <c r="I16">
-        <v>23.59086931646661</v>
+        <v>35.03492184891089</v>
       </c>
       <c r="J16">
-        <v>4.898782674132468</v>
+        <v>8.0638481056004</v>
       </c>
       <c r="K16">
-        <v>14.1766533073452</v>
+        <v>15.49399454507742</v>
       </c>
       <c r="L16">
-        <v>8.10401672762576</v>
+        <v>12.98583650593376</v>
       </c>
       <c r="M16">
-        <v>12.76329426210539</v>
+        <v>18.51790334258678</v>
       </c>
       <c r="N16">
-        <v>15.49423674165662</v>
+        <v>24.40905661422319</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.15166999370789</v>
+        <v>18.13701079800773</v>
       </c>
       <c r="C17">
-        <v>7.835092475370336</v>
+        <v>4.580001634226346</v>
       </c>
       <c r="D17">
-        <v>9.312080702927688</v>
+        <v>13.25917114788586</v>
       </c>
       <c r="E17">
-        <v>7.682608108299732</v>
+        <v>13.07192162226739</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>46.68784319431384</v>
+        <v>60.71190793887023</v>
       </c>
       <c r="H17">
-        <v>14.50593202140142</v>
+        <v>22.23355039635578</v>
       </c>
       <c r="I17">
-        <v>23.54641923865848</v>
+        <v>35.05452796974387</v>
       </c>
       <c r="J17">
-        <v>4.896213836569054</v>
+        <v>8.063508527731358</v>
       </c>
       <c r="K17">
-        <v>13.92908763901058</v>
+        <v>15.45055764297277</v>
       </c>
       <c r="L17">
-        <v>8.066121951769478</v>
+        <v>12.98944503591667</v>
       </c>
       <c r="M17">
-        <v>12.63437537201667</v>
+        <v>18.51086043124619</v>
       </c>
       <c r="N17">
-        <v>15.5789458292411</v>
+        <v>24.43239240200231</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.96741248382391</v>
+        <v>18.10187244306796</v>
       </c>
       <c r="C18">
-        <v>7.738076466142646</v>
+        <v>4.531221070575407</v>
       </c>
       <c r="D18">
-        <v>9.263296271912649</v>
+        <v>13.25718303204406</v>
       </c>
       <c r="E18">
-        <v>7.681545254384425</v>
+        <v>13.07622826290742</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>46.4910291343552</v>
+        <v>60.70621100189308</v>
       </c>
       <c r="H18">
-        <v>14.49226897618622</v>
+        <v>22.24108490948713</v>
       </c>
       <c r="I18">
-        <v>23.52248658597543</v>
+        <v>35.06631168974904</v>
       </c>
       <c r="J18">
-        <v>4.894753761707076</v>
+        <v>8.063315090566835</v>
       </c>
       <c r="K18">
-        <v>13.78552204832471</v>
+        <v>15.42582187361105</v>
       </c>
       <c r="L18">
-        <v>8.04465273055189</v>
+        <v>12.99167770239024</v>
       </c>
       <c r="M18">
-        <v>12.56032891004605</v>
+        <v>18.50707928644745</v>
       </c>
       <c r="N18">
-        <v>15.62801358062686</v>
+        <v>24.44599966926603</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.90473765488854</v>
+        <v>18.09002294176848</v>
       </c>
       <c r="C19">
-        <v>7.705013254244346</v>
+        <v>4.514574409619672</v>
       </c>
       <c r="D19">
-        <v>9.2468177337574</v>
+        <v>13.25654536140824</v>
       </c>
       <c r="E19">
-        <v>7.68123189379576</v>
+        <v>13.07770646967898</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>46.42492400502051</v>
+        <v>60.70448451377057</v>
       </c>
       <c r="H19">
-        <v>14.48780072808279</v>
+        <v>22.24368756653547</v>
       </c>
       <c r="I19">
-        <v>23.51466019236407</v>
+        <v>35.07038848251426</v>
       </c>
       <c r="J19">
-        <v>4.89426231680573</v>
+        <v>8.06324991867521</v>
       </c>
       <c r="K19">
-        <v>13.73671407812708</v>
+        <v>15.41748998041321</v>
       </c>
       <c r="L19">
-        <v>8.037439647922765</v>
+        <v>12.99246065181679</v>
       </c>
       <c r="M19">
-        <v>12.53527761367691</v>
+        <v>18.50584548113255</v>
       </c>
       <c r="N19">
-        <v>15.64468646261528</v>
+        <v>24.45063867934946</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.18563433304546</v>
+        <v>18.14353656904526</v>
       </c>
       <c r="C20">
-        <v>7.852945974281717</v>
+        <v>4.588967844501305</v>
       </c>
       <c r="D20">
-        <v>9.321127933491079</v>
+        <v>13.25955593937153</v>
       </c>
       <c r="E20">
-        <v>7.682826993886441</v>
+        <v>13.0711340810493</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>46.72452263344272</v>
+        <v>60.71305842955044</v>
       </c>
       <c r="H20">
-        <v>14.50853620842326</v>
+        <v>22.23218043762568</v>
       </c>
       <c r="I20">
-        <v>23.55098101632287</v>
+        <v>35.05238840941604</v>
       </c>
       <c r="J20">
-        <v>4.896485466781394</v>
+        <v>8.063544481874185</v>
       </c>
       <c r="K20">
-        <v>13.9555632764085</v>
+        <v>15.45515605767412</v>
       </c>
       <c r="L20">
-        <v>8.070122061168613</v>
+        <v>12.98904464330262</v>
       </c>
       <c r="M20">
-        <v>12.64808860496849</v>
+        <v>18.51158226573994</v>
       </c>
       <c r="N20">
-        <v>15.56989267908318</v>
+        <v>24.42988911230687</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.10902104173077</v>
+        <v>18.32651811617269</v>
       </c>
       <c r="C21">
-        <v>8.335169237286362</v>
+        <v>4.829828623980506</v>
       </c>
       <c r="D21">
-        <v>9.573390859734069</v>
+        <v>13.27213055534034</v>
       </c>
       <c r="E21">
-        <v>7.691474071983177</v>
+        <v>13.05044454611948</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>47.76851372986103</v>
+        <v>60.75593000482429</v>
       </c>
       <c r="H21">
-        <v>14.58948731843419</v>
+        <v>22.19710780804522</v>
       </c>
       <c r="I21">
-        <v>23.69282055490302</v>
+        <v>34.99796678158386</v>
       </c>
       <c r="J21">
-        <v>4.90417009524899</v>
+        <v>8.064556633055204</v>
       </c>
       <c r="K21">
-        <v>14.67671514714048</v>
+        <v>15.58462525223628</v>
       </c>
       <c r="L21">
-        <v>8.183844000222495</v>
+        <v>12.97944331125615</v>
       </c>
       <c r="M21">
-        <v>13.02824758146775</v>
+        <v>18.53407271527113</v>
       </c>
       <c r="N21">
-        <v>15.3227177959169</v>
+        <v>24.36238356593013</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.69700659073127</v>
+        <v>18.44831527076828</v>
       </c>
       <c r="C22">
-        <v>8.639497181967721</v>
+        <v>4.980451340541854</v>
       </c>
       <c r="D22">
-        <v>9.740053455340409</v>
+        <v>13.28217179201452</v>
       </c>
       <c r="E22">
-        <v>7.699639424052187</v>
+        <v>13.03795827553223</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>48.47906742380149</v>
+        <v>60.79440951886133</v>
       </c>
       <c r="H22">
-        <v>14.65116575963739</v>
+        <v>22.17686133172641</v>
       </c>
       <c r="I22">
-        <v>23.80094038072171</v>
+        <v>34.96691491603409</v>
       </c>
       <c r="J22">
-        <v>4.909368499880597</v>
+        <v>8.065234891441255</v>
       </c>
       <c r="K22">
-        <v>15.20425438038461</v>
+        <v>15.67130696225107</v>
       </c>
       <c r="L22">
-        <v>8.261104433083323</v>
+        <v>12.97456310061315</v>
       </c>
       <c r="M22">
-        <v>13.27729307370932</v>
+        <v>18.55115099066279</v>
       </c>
       <c r="N22">
-        <v>15.16424180690301</v>
+        <v>24.31990784978969</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.38462166113194</v>
+        <v>18.38311842821011</v>
       </c>
       <c r="C23">
-        <v>8.478048938472718</v>
+        <v>4.900683696751009</v>
       </c>
       <c r="D23">
-        <v>9.650946544702272</v>
+        <v>13.27664647114019</v>
       </c>
       <c r="E23">
-        <v>7.695047222129713</v>
+        <v>13.04452784463926</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>48.09722171857506</v>
+        <v>60.77291676506471</v>
       </c>
       <c r="H23">
-        <v>14.61742050958453</v>
+        <v>22.18742245602531</v>
       </c>
       <c r="I23">
-        <v>23.74178119801635</v>
+        <v>34.98307457133433</v>
       </c>
       <c r="J23">
-        <v>4.906576847042384</v>
+        <v>8.064871357433795</v>
       </c>
       <c r="K23">
-        <v>14.90797668906917</v>
+        <v>15.62486124740285</v>
       </c>
       <c r="L23">
-        <v>8.219599045295254</v>
+        <v>12.9770403613171</v>
       </c>
       <c r="M23">
-        <v>13.14433392169724</v>
+        <v>18.54181941969588</v>
       </c>
       <c r="N23">
-        <v>15.24854278312939</v>
+        <v>24.3424278656554</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.17028458169657</v>
+        <v>18.14058546694449</v>
       </c>
       <c r="C24">
-        <v>7.844878428853481</v>
+        <v>4.584916655815572</v>
       </c>
       <c r="D24">
-        <v>9.317037055695558</v>
+        <v>13.25938133578583</v>
       </c>
       <c r="E24">
-        <v>7.682727188544897</v>
+        <v>13.07148975909595</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>46.70793044446543</v>
+        <v>60.71253463306422</v>
       </c>
       <c r="H24">
-        <v>14.50735598094936</v>
+        <v>22.23279884985824</v>
       </c>
       <c r="I24">
-        <v>23.54891359315059</v>
+        <v>35.05335411007952</v>
       </c>
       <c r="J24">
-        <v>4.896362610705078</v>
+        <v>8.063528221431175</v>
       </c>
       <c r="K24">
-        <v>13.94359748813908</v>
+        <v>15.45307637555495</v>
       </c>
       <c r="L24">
-        <v>8.068312624632542</v>
+        <v>12.98922516836636</v>
       </c>
       <c r="M24">
-        <v>12.64188862811619</v>
+        <v>18.51125508956841</v>
       </c>
       <c r="N24">
-        <v>15.57398446385999</v>
+        <v>24.43102025385899</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.79618561165442</v>
+        <v>17.88950980500539</v>
       </c>
       <c r="C25">
-        <v>7.114110579924988</v>
+        <v>4.215282191549387</v>
       </c>
       <c r="D25">
-        <v>8.965486864163839</v>
+        <v>13.24864754963952</v>
       </c>
       <c r="E25">
-        <v>7.67982518401083</v>
+        <v>13.10503487031436</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>45.32812662519292</v>
+        <v>60.6924379799469</v>
       </c>
       <c r="H25">
-        <v>14.42396419379389</v>
+        <v>22.29323065464114</v>
       </c>
       <c r="I25">
-        <v>23.40284639802028</v>
+        <v>35.14853490405336</v>
       </c>
       <c r="J25">
-        <v>4.886002349885788</v>
+        <v>8.062151248768636</v>
       </c>
       <c r="K25">
-        <v>12.87574267646202</v>
+        <v>15.2773367005667</v>
       </c>
       <c r="L25">
-        <v>7.917606954433489</v>
+        <v>13.00837813506054</v>
       </c>
       <c r="M25">
-        <v>12.1041646804066</v>
+        <v>18.48861018994218</v>
       </c>
       <c r="N25">
-        <v>15.93825002881069</v>
+        <v>24.53366344283263</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_106/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_106/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.71478051727053</v>
+        <v>14.73290998073441</v>
       </c>
       <c r="C2">
-        <v>3.918362450550199</v>
+        <v>6.533633854643369</v>
       </c>
       <c r="D2">
-        <v>13.24758217417682</v>
+        <v>8.715128629219137</v>
       </c>
       <c r="E2">
-        <v>13.13359281170308</v>
+        <v>7.68618685846616</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>60.71641640489961</v>
+        <v>44.41114973839861</v>
       </c>
       <c r="H2">
-        <v>22.34760432598437</v>
+        <v>14.39041507088027</v>
       </c>
       <c r="I2">
-        <v>35.2352596604217</v>
+        <v>23.34397588043555</v>
       </c>
       <c r="J2">
-        <v>8.061198718603105</v>
+        <v>4.878840555077819</v>
       </c>
       <c r="K2">
-        <v>15.15684806789466</v>
+        <v>12.05463115012288</v>
       </c>
       <c r="L2">
-        <v>13.027669503121</v>
+        <v>7.817203414595106</v>
       </c>
       <c r="M2">
-        <v>18.48091113528358</v>
+        <v>11.71396564701302</v>
       </c>
       <c r="N2">
-        <v>24.61537505153531</v>
+        <v>16.21802103026467</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.60320496475338</v>
+        <v>13.98305903093083</v>
       </c>
       <c r="C3">
-        <v>3.701879639757636</v>
+        <v>6.113249546374159</v>
       </c>
       <c r="D3">
-        <v>13.25114696125519</v>
+        <v>8.551340314319916</v>
       </c>
       <c r="E3">
-        <v>13.15536450863131</v>
+        <v>7.6955906468719</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>60.75684234159249</v>
+        <v>43.84962405690668</v>
       </c>
       <c r="H3">
-        <v>22.39061415335945</v>
+        <v>14.3838127023701</v>
       </c>
       <c r="I3">
-        <v>35.30440407070573</v>
+        <v>23.33217068766502</v>
       </c>
       <c r="J3">
-        <v>8.060591239375906</v>
+        <v>4.874234082652746</v>
       </c>
       <c r="K3">
-        <v>15.08107307220823</v>
+        <v>11.47888780513621</v>
       </c>
       <c r="L3">
-        <v>13.04398961377904</v>
+        <v>7.755649989674515</v>
       </c>
       <c r="M3">
-        <v>18.48133287078555</v>
+        <v>11.45428843230822</v>
       </c>
       <c r="N3">
-        <v>24.67460215187332</v>
+        <v>16.41496545662897</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.53823456229862</v>
+        <v>13.50953670450529</v>
       </c>
       <c r="C4">
-        <v>3.595258464558431</v>
+        <v>5.841686861169856</v>
       </c>
       <c r="D4">
-        <v>13.25545608998988</v>
+        <v>8.453876039217224</v>
       </c>
       <c r="E4">
-        <v>13.16992849902011</v>
+        <v>7.703809597553819</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>60.79357584414558</v>
+        <v>43.53369443137426</v>
       </c>
       <c r="H4">
-        <v>22.42006014324332</v>
+        <v>14.38731428092325</v>
       </c>
       <c r="I4">
-        <v>35.35196957328785</v>
+        <v>23.33803720168215</v>
       </c>
       <c r="J4">
-        <v>8.060236966094333</v>
+        <v>4.871514521635648</v>
       </c>
       <c r="K4">
-        <v>15.03754913401113</v>
+        <v>11.11697491927593</v>
       </c>
       <c r="L4">
-        <v>13.05561425727466</v>
+        <v>7.721020594253717</v>
       </c>
       <c r="M4">
-        <v>18.48438561187706</v>
+        <v>11.29762477799924</v>
       </c>
       <c r="N4">
-        <v>24.7128745041517</v>
+        <v>16.53955904987668</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.5126719495962</v>
+        <v>13.31351915980553</v>
       </c>
       <c r="C5">
-        <v>3.552756225930684</v>
+        <v>5.72762850198581</v>
       </c>
       <c r="D5">
-        <v>13.25774611291146</v>
+        <v>8.414969017131115</v>
       </c>
       <c r="E5">
-        <v>13.17616472975301</v>
+        <v>7.707764060903796</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>60.81153804162208</v>
+        <v>43.41208905818011</v>
       </c>
       <c r="H5">
-        <v>22.43282337484348</v>
+        <v>14.39058234825144</v>
       </c>
       <c r="I5">
-        <v>35.37263729333726</v>
+        <v>23.34361731702192</v>
       </c>
       <c r="J5">
-        <v>8.06009730141937</v>
+        <v>4.870431854061631</v>
       </c>
       <c r="K5">
-        <v>15.02058238216896</v>
+        <v>10.96757790397399</v>
       </c>
       <c r="L5">
-        <v>13.06075517545371</v>
+        <v>7.707698698162829</v>
       </c>
       <c r="M5">
-        <v>18.48633393125439</v>
+        <v>11.23454899847708</v>
       </c>
       <c r="N5">
-        <v>24.72895125243338</v>
+        <v>16.59126163582958</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.5084831294384</v>
+        <v>13.28079413989975</v>
       </c>
       <c r="C6">
-        <v>3.545664333500641</v>
+        <v>5.708483901693339</v>
       </c>
       <c r="D6">
-        <v>13.25815864401154</v>
+        <v>8.408558345063213</v>
       </c>
       <c r="E6">
-        <v>13.1772184633361</v>
+        <v>7.708456969140701</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>60.81470133111922</v>
+        <v>43.39232403152123</v>
       </c>
       <c r="H6">
-        <v>22.43498882397833</v>
+        <v>14.39123450667683</v>
       </c>
       <c r="I6">
-        <v>35.37614670435654</v>
+        <v>23.34473338230383</v>
       </c>
       <c r="J6">
-        <v>8.060074394262875</v>
+        <v>4.870253572425185</v>
       </c>
       <c r="K6">
-        <v>15.0178119562339</v>
+        <v>10.94266142510602</v>
       </c>
       <c r="L6">
-        <v>13.06163322034332</v>
+        <v>7.705534121288379</v>
       </c>
       <c r="M6">
-        <v>18.4867000336509</v>
+        <v>11.22412353936562</v>
       </c>
       <c r="N6">
-        <v>24.73164983218583</v>
+        <v>16.59990317790715</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.53788608743498</v>
+        <v>13.50690515301831</v>
       </c>
       <c r="C7">
-        <v>3.594687622306843</v>
+        <v>5.840162387786327</v>
       </c>
       <c r="D7">
-        <v>13.25548481083376</v>
+        <v>8.45334800487228</v>
       </c>
       <c r="E7">
-        <v>13.17001138241714</v>
+        <v>7.703860491092708</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>60.79380597405336</v>
+        <v>43.53202567976248</v>
       </c>
       <c r="H7">
-        <v>22.42022918047032</v>
+        <v>14.38735097750069</v>
       </c>
       <c r="I7">
-        <v>35.35224310596703</v>
+        <v>23.33809968528227</v>
       </c>
       <c r="J7">
-        <v>8.060235063481686</v>
+        <v>4.871499819131815</v>
       </c>
       <c r="K7">
-        <v>15.03731717977009</v>
+        <v>11.11496756549379</v>
       </c>
       <c r="L7">
-        <v>13.05568195405387</v>
+        <v>7.720837740888767</v>
       </c>
       <c r="M7">
-        <v>18.48440903373261</v>
+        <v>11.2967709258448</v>
       </c>
       <c r="N7">
-        <v>24.71308937414401</v>
+        <v>16.54025255500746</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.6755898068776</v>
+        <v>14.47721554551055</v>
       </c>
       <c r="C8">
-        <v>3.845271364376526</v>
+        <v>6.391466025776752</v>
       </c>
       <c r="D8">
-        <v>13.24837179168995</v>
+        <v>8.658029035649447</v>
       </c>
       <c r="E8">
-        <v>13.14085176093701</v>
+        <v>7.68891596801106</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>60.72788187972945</v>
+        <v>44.21148283025006</v>
       </c>
       <c r="H8">
-        <v>22.361803560568</v>
+        <v>14.38653484574308</v>
       </c>
       <c r="I8">
-        <v>35.25803956210999</v>
+        <v>23.33711781103261</v>
       </c>
       <c r="J8">
-        <v>8.060985372000429</v>
+        <v>4.877228540022738</v>
       </c>
       <c r="K8">
-        <v>15.13010685996911</v>
+        <v>11.85796880178984</v>
       </c>
       <c r="L8">
-        <v>13.03296403288619</v>
+        <v>7.795319676617048</v>
       </c>
       <c r="M8">
-        <v>18.48047783283536</v>
+        <v>11.62389212141855</v>
       </c>
       <c r="N8">
-        <v>24.63540143232323</v>
+        <v>16.28517013853269</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.97258133614159</v>
+        <v>16.26736413368648</v>
       </c>
       <c r="C9">
-        <v>4.343658567823863</v>
+        <v>7.366779582661799</v>
       </c>
       <c r="D9">
-        <v>13.25120428117574</v>
+        <v>9.082664591373815</v>
       </c>
       <c r="E9">
-        <v>13.09313712113942</v>
+        <v>7.679454162823025</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>60.69318508426353</v>
+        <v>45.77732180957207</v>
       </c>
       <c r="H9">
-        <v>22.27133954088407</v>
+        <v>14.44756115987135</v>
       </c>
       <c r="I9">
-        <v>35.11388630775974</v>
+        <v>23.4441819728074</v>
       </c>
       <c r="J9">
-        <v>8.062605530141326</v>
+        <v>4.889413544862284</v>
       </c>
       <c r="K9">
-        <v>15.33519613200596</v>
+        <v>13.24113358659872</v>
       </c>
       <c r="L9">
-        <v>13.0011216599864</v>
+        <v>7.966720179014934</v>
       </c>
       <c r="M9">
-        <v>18.49485011218497</v>
+        <v>12.28455807082661</v>
       </c>
       <c r="N9">
-        <v>24.49813777773715</v>
+        <v>15.81376516768588</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.20563734382365</v>
+        <v>17.50506418010513</v>
       </c>
       <c r="C10">
-        <v>4.672913801497349</v>
+        <v>8.020428605832418</v>
       </c>
       <c r="D10">
-        <v>13.26344943594063</v>
+        <v>9.407035427320794</v>
       </c>
       <c r="E10">
-        <v>13.06382146775981</v>
+        <v>7.685232677043333</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>60.72538389596781</v>
+        <v>47.07552765831252</v>
       </c>
       <c r="H10">
-        <v>22.21957877487881</v>
+        <v>14.53432868715967</v>
       </c>
       <c r="I10">
-        <v>35.03275333803433</v>
+        <v>23.59616570621583</v>
       </c>
       <c r="J10">
-        <v>8.063887108504012</v>
+        <v>4.899078228295772</v>
       </c>
       <c r="K10">
-        <v>15.49898412335085</v>
+        <v>14.20474181714836</v>
       </c>
       <c r="L10">
-        <v>12.98544602533603</v>
+        <v>8.108385159544422</v>
       </c>
       <c r="M10">
-        <v>18.51874346592655</v>
+        <v>12.77801770016074</v>
       </c>
       <c r="N10">
-        <v>24.40641890620403</v>
+        <v>15.48461758879106</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.31452903430927</v>
+        <v>18.0500849990993</v>
       </c>
       <c r="C11">
-        <v>4.81461683997636</v>
+        <v>8.304557670836926</v>
       </c>
       <c r="D11">
-        <v>13.27120926741477</v>
+        <v>9.556937299490395</v>
       </c>
       <c r="E11">
-        <v>13.05172479064737</v>
+        <v>7.690768568072983</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>60.75254179460727</v>
+        <v>47.69922644510128</v>
       </c>
       <c r="H11">
-        <v>22.19922452230399</v>
+        <v>14.58373813338105</v>
       </c>
       <c r="I11">
-        <v>35.00123006280054</v>
+        <v>23.68274460140171</v>
       </c>
       <c r="J11">
-        <v>8.064490070688365</v>
+        <v>4.903662218814198</v>
       </c>
       <c r="K11">
-        <v>15.57611315209197</v>
+        <v>14.630611921836</v>
       </c>
       <c r="L11">
-        <v>12.9799840955429</v>
+        <v>8.176304248163637</v>
       </c>
       <c r="M11">
-        <v>18.53247631151154</v>
+        <v>13.00357449007743</v>
       </c>
       <c r="N11">
-        <v>24.36666197965595</v>
+        <v>15.33855559560126</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.35614538094997</v>
+        <v>18.2538155287739</v>
       </c>
       <c r="C12">
-        <v>4.867111283798312</v>
+        <v>8.410289071387307</v>
       </c>
       <c r="D12">
-        <v>13.27446068164802</v>
+        <v>9.614011478185123</v>
       </c>
       <c r="E12">
-        <v>13.04732174079235</v>
+        <v>7.693295160434048</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>60.76462099440128</v>
+        <v>47.94024707343431</v>
       </c>
       <c r="H12">
-        <v>22.19197583339879</v>
+        <v>14.60394758568814</v>
       </c>
       <c r="I12">
-        <v>34.99006760928479</v>
+        <v>23.71816509105467</v>
       </c>
       <c r="J12">
-        <v>8.064721274308976</v>
+        <v>4.905428008707318</v>
       </c>
       <c r="K12">
-        <v>15.60567642605488</v>
+        <v>14.79002315456139</v>
       </c>
       <c r="L12">
-        <v>12.97815513735031</v>
+        <v>8.202527187631219</v>
       </c>
       <c r="M12">
-        <v>18.53808516212131</v>
+        <v>13.08909233130588</v>
       </c>
       <c r="N12">
-        <v>24.35188884601176</v>
+        <v>15.28377116638882</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.34716610388527</v>
+        <v>18.21005748259479</v>
       </c>
       <c r="C13">
-        <v>4.855857544742618</v>
+        <v>8.387600078456495</v>
       </c>
       <c r="D13">
-        <v>13.27374654602173</v>
+        <v>9.601706166677062</v>
       </c>
       <c r="E13">
-        <v>13.04826212099583</v>
+        <v>7.69273167727188</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>60.76193976108407</v>
+        <v>47.88812252341636</v>
       </c>
       <c r="H13">
-        <v>22.19351655329174</v>
+        <v>14.59952730717275</v>
       </c>
       <c r="I13">
-        <v>34.99243718152992</v>
+        <v>23.71041741284772</v>
       </c>
       <c r="J13">
-        <v>8.064671352547974</v>
+        <v>4.905046332653908</v>
       </c>
       <c r="K13">
-        <v>15.59929394084399</v>
+        <v>14.75577443196667</v>
       </c>
       <c r="L13">
-        <v>12.97853840159707</v>
+        <v>8.196857153612234</v>
       </c>
       <c r="M13">
-        <v>18.53685908157672</v>
+        <v>13.07067063119152</v>
       </c>
       <c r="N13">
-        <v>24.35505797768372</v>
+        <v>15.29554658004864</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.31794537582796</v>
+        <v>18.066899576138</v>
       </c>
       <c r="C14">
-        <v>4.818958963284435</v>
+        <v>8.313293339343867</v>
       </c>
       <c r="D14">
-        <v>13.27147050316492</v>
+        <v>9.561626767861629</v>
       </c>
       <c r="E14">
-        <v>13.05135899055291</v>
+        <v>7.69096773732594</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>60.75349960820722</v>
+        <v>47.71895793387471</v>
       </c>
       <c r="H14">
-        <v>22.19861896885671</v>
+        <v>14.58537032374311</v>
       </c>
       <c r="I14">
-        <v>35.00029619228818</v>
+        <v>23.6856051208473</v>
       </c>
       <c r="J14">
-        <v>8.064509034309269</v>
+        <v>4.903806873492883</v>
       </c>
       <c r="K14">
-        <v>15.57853832275669</v>
+        <v>14.64376426949343</v>
       </c>
       <c r="L14">
-        <v>12.97982883287017</v>
+        <v>8.178451512480846</v>
       </c>
       <c r="M14">
-        <v>18.53292958732908</v>
+        <v>13.01060827031629</v>
       </c>
       <c r="N14">
-        <v>24.36544093897457</v>
+        <v>15.33403790627833</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.3000955564985</v>
+        <v>17.9788636516895</v>
       </c>
       <c r="C15">
-        <v>4.796205654158226</v>
+        <v>8.267537036082913</v>
       </c>
       <c r="D15">
-        <v>13.2701170545707</v>
+        <v>9.537116535424587</v>
       </c>
       <c r="E15">
-        <v>13.05327903963335</v>
+        <v>7.689943678174274</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>60.74856340732423</v>
+        <v>47.61597221697625</v>
       </c>
       <c r="H15">
-        <v>22.20180412390846</v>
+        <v>14.57689610921346</v>
       </c>
       <c r="I15">
-        <v>35.0052109664741</v>
+        <v>23.67075383944078</v>
       </c>
       <c r="J15">
-        <v>8.064409984217397</v>
+        <v>4.903051660038189</v>
       </c>
       <c r="K15">
-        <v>15.56587066797045</v>
+        <v>14.57491154805826</v>
       </c>
       <c r="L15">
-        <v>12.98065041052712</v>
+        <v>8.167243207489308</v>
       </c>
       <c r="M15">
-        <v>18.5305757585351</v>
+        <v>12.97383053580773</v>
       </c>
       <c r="N15">
-        <v>24.37183749690341</v>
+        <v>15.35768345271065</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.19857613432179</v>
+        <v>17.46907702260874</v>
       </c>
       <c r="C16">
-        <v>4.663490269494276</v>
+        <v>8.001597321784857</v>
       </c>
       <c r="D16">
-        <v>13.26298621163724</v>
+        <v>9.397283736438416</v>
       </c>
       <c r="E16">
-        <v>13.06463690729916</v>
+        <v>7.684930427334755</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>60.72386050232106</v>
+        <v>47.03544060600821</v>
       </c>
       <c r="H16">
-        <v>22.22097320720811</v>
+        <v>14.5313055950017</v>
       </c>
       <c r="I16">
-        <v>35.03492184891089</v>
+        <v>23.59086931646668</v>
       </c>
       <c r="J16">
-        <v>8.0638481056004</v>
+        <v>4.898782674132334</v>
       </c>
       <c r="K16">
-        <v>15.49399454507742</v>
+        <v>14.17665330734519</v>
       </c>
       <c r="L16">
-        <v>12.98583650593376</v>
+        <v>8.104016727625636</v>
       </c>
       <c r="M16">
-        <v>18.51790334258678</v>
+        <v>12.76329426210535</v>
       </c>
       <c r="N16">
-        <v>24.40905661422319</v>
+        <v>15.49423674165669</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.13701079800773</v>
+        <v>17.15166999370791</v>
       </c>
       <c r="C17">
-        <v>4.580001634226346</v>
+        <v>7.835092475370314</v>
       </c>
       <c r="D17">
-        <v>13.25917114788586</v>
+        <v>9.312080702927645</v>
       </c>
       <c r="E17">
-        <v>13.07192162226739</v>
+        <v>7.682608108299674</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>60.71190793887023</v>
+        <v>46.68784319431384</v>
       </c>
       <c r="H17">
-        <v>22.23355039635578</v>
+        <v>14.50593202140142</v>
       </c>
       <c r="I17">
-        <v>35.05452796974387</v>
+        <v>23.54641923865848</v>
       </c>
       <c r="J17">
-        <v>8.063508527731358</v>
+        <v>4.896213836569053</v>
       </c>
       <c r="K17">
-        <v>15.45055764297277</v>
+        <v>13.92908763901058</v>
       </c>
       <c r="L17">
-        <v>12.98944503591667</v>
+        <v>8.066121951769446</v>
       </c>
       <c r="M17">
-        <v>18.51086043124619</v>
+        <v>12.63437537201666</v>
       </c>
       <c r="N17">
-        <v>24.43239240200231</v>
+        <v>15.57894582924107</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.10187244306796</v>
+        <v>16.96741248382394</v>
       </c>
       <c r="C18">
-        <v>4.531221070575407</v>
+        <v>7.738076466142836</v>
       </c>
       <c r="D18">
-        <v>13.25718303204406</v>
+        <v>9.263296271912612</v>
       </c>
       <c r="E18">
-        <v>13.07622826290742</v>
+        <v>7.681545254384321</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>60.70621100189308</v>
+        <v>46.49102913435534</v>
       </c>
       <c r="H18">
-        <v>22.24108490948713</v>
+        <v>14.49226897618617</v>
       </c>
       <c r="I18">
-        <v>35.06631168974904</v>
+        <v>23.52248658597545</v>
       </c>
       <c r="J18">
-        <v>8.063315090566835</v>
+        <v>4.894753761707074</v>
       </c>
       <c r="K18">
-        <v>15.42582187361105</v>
+        <v>13.78552204832471</v>
       </c>
       <c r="L18">
-        <v>12.99167770239024</v>
+        <v>8.044652730551762</v>
       </c>
       <c r="M18">
-        <v>18.50707928644745</v>
+        <v>12.56032891004601</v>
       </c>
       <c r="N18">
-        <v>24.44599966926603</v>
+        <v>15.62801358062682</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.09002294176848</v>
+        <v>16.90473765488853</v>
       </c>
       <c r="C19">
-        <v>4.514574409619672</v>
+        <v>7.705013254244252</v>
       </c>
       <c r="D19">
-        <v>13.25654536140824</v>
+        <v>9.24681773375743</v>
       </c>
       <c r="E19">
-        <v>13.07770646967898</v>
+        <v>7.681231893795699</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>60.70448451377057</v>
+        <v>46.42492400502061</v>
       </c>
       <c r="H19">
-        <v>22.24368756653547</v>
+        <v>14.48780072808272</v>
       </c>
       <c r="I19">
-        <v>35.07038848251426</v>
+        <v>23.51466019236404</v>
       </c>
       <c r="J19">
-        <v>8.06324991867521</v>
+        <v>4.894262316805696</v>
       </c>
       <c r="K19">
-        <v>15.41748998041321</v>
+        <v>13.73671407812708</v>
       </c>
       <c r="L19">
-        <v>12.99246065181679</v>
+        <v>8.037439647922731</v>
       </c>
       <c r="M19">
-        <v>18.50584548113255</v>
+        <v>12.53527761367689</v>
       </c>
       <c r="N19">
-        <v>24.45063867934946</v>
+        <v>15.64468646261524</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.14353656904526</v>
+        <v>17.18563433304549</v>
       </c>
       <c r="C20">
-        <v>4.588967844501305</v>
+        <v>7.852945974281774</v>
       </c>
       <c r="D20">
-        <v>13.25955593937153</v>
+        <v>9.321127933490958</v>
       </c>
       <c r="E20">
-        <v>13.0711340810493</v>
+        <v>7.682826993886323</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>60.71305842955044</v>
+        <v>46.72452263344282</v>
       </c>
       <c r="H20">
-        <v>22.23218043762568</v>
+        <v>14.50853620842327</v>
       </c>
       <c r="I20">
-        <v>35.05238840941604</v>
+        <v>23.55098101632291</v>
       </c>
       <c r="J20">
-        <v>8.063544481874185</v>
+        <v>4.896485466781361</v>
       </c>
       <c r="K20">
-        <v>15.45515605767412</v>
+        <v>13.95556327640852</v>
       </c>
       <c r="L20">
-        <v>12.98904464330262</v>
+        <v>8.070122061168544</v>
       </c>
       <c r="M20">
-        <v>18.51158226573994</v>
+        <v>12.64808860496847</v>
       </c>
       <c r="N20">
-        <v>24.42988911230687</v>
+        <v>15.56989267908318</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.32651811617269</v>
+        <v>18.10902104173079</v>
       </c>
       <c r="C21">
-        <v>4.829828623980506</v>
+        <v>8.335169237286184</v>
       </c>
       <c r="D21">
-        <v>13.27213055534034</v>
+        <v>9.573390859733923</v>
       </c>
       <c r="E21">
-        <v>13.05044454611948</v>
+        <v>7.69147407198312</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>60.75593000482429</v>
+        <v>47.76851372986125</v>
       </c>
       <c r="H21">
-        <v>22.19710780804522</v>
+        <v>14.58948731843416</v>
       </c>
       <c r="I21">
-        <v>34.99796678158386</v>
+        <v>23.69282055490305</v>
       </c>
       <c r="J21">
-        <v>8.064556633055204</v>
+        <v>4.904170095249025</v>
       </c>
       <c r="K21">
-        <v>15.58462525223628</v>
+        <v>14.67671514714049</v>
       </c>
       <c r="L21">
-        <v>12.97944331125615</v>
+        <v>8.183844000222496</v>
       </c>
       <c r="M21">
-        <v>18.53407271527113</v>
+        <v>13.02824758146773</v>
       </c>
       <c r="N21">
-        <v>24.36238356593013</v>
+        <v>15.32271779591693</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.44831527076828</v>
+        <v>18.69700659073126</v>
       </c>
       <c r="C22">
-        <v>4.980451340541854</v>
+        <v>8.639497181967883</v>
       </c>
       <c r="D22">
-        <v>13.28217179201452</v>
+        <v>9.74005345534035</v>
       </c>
       <c r="E22">
-        <v>13.03795827553223</v>
+        <v>7.699639424052076</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>60.79440951886133</v>
+        <v>48.47906742380133</v>
       </c>
       <c r="H22">
-        <v>22.17686133172641</v>
+        <v>14.65116575963727</v>
       </c>
       <c r="I22">
-        <v>34.96691491603409</v>
+        <v>23.8009403807216</v>
       </c>
       <c r="J22">
-        <v>8.065234891441255</v>
+        <v>4.909368499880531</v>
       </c>
       <c r="K22">
-        <v>15.67130696225107</v>
+        <v>15.20425438038465</v>
       </c>
       <c r="L22">
-        <v>12.97456310061315</v>
+        <v>8.261104433083201</v>
       </c>
       <c r="M22">
-        <v>18.55115099066279</v>
+        <v>13.27729307370925</v>
       </c>
       <c r="N22">
-        <v>24.31990784978969</v>
+        <v>15.16424180690289</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.38311842821011</v>
+        <v>18.38462166113193</v>
       </c>
       <c r="C23">
-        <v>4.900683696751009</v>
+        <v>8.478048938472677</v>
       </c>
       <c r="D23">
-        <v>13.27664647114019</v>
+        <v>9.65094654470216</v>
       </c>
       <c r="E23">
-        <v>13.04452784463926</v>
+        <v>7.695047222129547</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>60.77291676506471</v>
+        <v>48.09722171857499</v>
       </c>
       <c r="H23">
-        <v>22.18742245602531</v>
+        <v>14.61742050958448</v>
       </c>
       <c r="I23">
-        <v>34.98307457133433</v>
+        <v>23.74178119801627</v>
       </c>
       <c r="J23">
-        <v>8.064871357433795</v>
+        <v>4.906576847042351</v>
       </c>
       <c r="K23">
-        <v>15.62486124740285</v>
+        <v>14.90797668906916</v>
       </c>
       <c r="L23">
-        <v>12.9770403613171</v>
+        <v>8.21959904529518</v>
       </c>
       <c r="M23">
-        <v>18.54181941969588</v>
+        <v>13.14433392169718</v>
       </c>
       <c r="N23">
-        <v>24.3424278656554</v>
+        <v>15.24854278312936</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.14058546694449</v>
+        <v>17.17028458169659</v>
       </c>
       <c r="C24">
-        <v>4.584916655815572</v>
+        <v>7.844878428853533</v>
       </c>
       <c r="D24">
-        <v>13.25938133578583</v>
+        <v>9.317037055695506</v>
       </c>
       <c r="E24">
-        <v>13.07148975909595</v>
+        <v>7.682727188544841</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>60.71253463306422</v>
+        <v>46.70793044446529</v>
       </c>
       <c r="H24">
-        <v>22.23279884985824</v>
+        <v>14.50735598094947</v>
       </c>
       <c r="I24">
-        <v>35.05335411007952</v>
+        <v>23.54891359315061</v>
       </c>
       <c r="J24">
-        <v>8.063528221431175</v>
+        <v>4.896362610705113</v>
       </c>
       <c r="K24">
-        <v>15.45307637555495</v>
+        <v>13.94359748813908</v>
       </c>
       <c r="L24">
-        <v>12.98922516836636</v>
+        <v>8.068312624632469</v>
       </c>
       <c r="M24">
-        <v>18.51125508956841</v>
+        <v>12.64188862811616</v>
       </c>
       <c r="N24">
-        <v>24.43102025385899</v>
+        <v>15.57398446385996</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.88950980500539</v>
+        <v>15.79618561165444</v>
       </c>
       <c r="C25">
-        <v>4.215282191549387</v>
+        <v>7.114110579925151</v>
       </c>
       <c r="D25">
-        <v>13.24864754963952</v>
+        <v>8.965486864163877</v>
       </c>
       <c r="E25">
-        <v>13.10503487031436</v>
+        <v>7.67982518401082</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>60.6924379799469</v>
+        <v>45.32812662519291</v>
       </c>
       <c r="H25">
-        <v>22.29323065464114</v>
+        <v>14.42396419379395</v>
       </c>
       <c r="I25">
-        <v>35.14853490405336</v>
+        <v>23.40284639802038</v>
       </c>
       <c r="J25">
-        <v>8.062151248768636</v>
+        <v>4.886002349885721</v>
       </c>
       <c r="K25">
-        <v>15.2773367005667</v>
+        <v>12.87574267646203</v>
       </c>
       <c r="L25">
-        <v>13.00837813506054</v>
+        <v>7.917606954433384</v>
       </c>
       <c r="M25">
-        <v>18.48861018994218</v>
+        <v>12.1041646804066</v>
       </c>
       <c r="N25">
-        <v>24.53366344283263</v>
+        <v>15.9382500288107</v>
       </c>
       <c r="O25">
         <v>0</v>
